--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 5.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\Ung_Dung_On_Tap_Ly_Thuyet\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CAABD-7076-4FFE-B747-6EDB7A66BF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2703FA59-91D5-4A0F-B364-31E1B6BF4312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="131">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -43,13 +43,388 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Trong xã hội có giai cấp, cơ cấu nào có vị trí quyết định nhất, chi phối các loại hình cơ cấu xã hội khác?</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội – nghề nghiệp</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội – dân số</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội – giai cấp</t>
+  </si>
+  <si>
+    <t>Cấu xã hội – dân tộc</t>
+  </si>
+  <si>
+    <t>Sự biến đổi của cơ cấu xã hội – giai cấp gắn liền và được quy định bởi sự biến động của cơ cấu nào?</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội – kinh tế</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội – dân tộc</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội – dân cư</t>
+  </si>
+  <si>
+    <t>Trong quá trình xây dựng chủ nghĩa xã hội, liên minh giữa giai cấp công nhân, giai cấp nông dân và tầng lớp trí thức dưới góc độ nào giữ vai trò quyết định?</t>
+  </si>
+  <si>
+    <t>Chính trị</t>
+  </si>
+  <si>
+    <t>Văn hóa</t>
+  </si>
+  <si>
+    <t>Kinh tế</t>
+  </si>
+  <si>
+    <t>Tư tưởng</t>
+  </si>
+  <si>
+    <t>Yếu tố nào quyết định sự liên minh giữa giai cấp công nhân, giai cấp nông dân và tầng lớp trí thức?</t>
+  </si>
+  <si>
+    <t>Do giai cấp công nhân mong muốn</t>
+  </si>
+  <si>
+    <t>Do có những lợi ích cơ bản thống nhất với nhau</t>
+  </si>
+  <si>
+    <t>Do có cùng một kẻ thù là giai cấp tư sản</t>
+  </si>
+  <si>
+    <t>Do mục tiêu về chính trị của giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Nội dung nào quan trọng nhất trong các nội dung liên minh công – nông – trí thức?</t>
+  </si>
+  <si>
+    <t>Văn hóa – xã hội</t>
+  </si>
+  <si>
+    <t>Liên minh giữa giai cấp công nhân với giai cấp nông dân và tầng lớp trí thức là do:</t>
+  </si>
+  <si>
+    <t>Do mong muốn của công nhân</t>
+  </si>
+  <si>
+    <t>Yêu cầu của trí thức</t>
+  </si>
+  <si>
+    <t>Yêu cầu của nông dân</t>
+  </si>
+  <si>
+    <t>Do đòi hỏi khách quan của cả công nhân, nông dân và trí thức.</t>
+  </si>
+  <si>
+    <t>Theo C.Mác và Ph.Ăngghen, những “người bạn đồng minh tự nhiên” của giai cấp công nhân là ai?</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản</t>
+  </si>
+  <si>
+    <t>Tầng lớp trí thức</t>
+  </si>
+  <si>
+    <t>Giai cấp nông dân</t>
+  </si>
+  <si>
+    <t>Tiểu tư sản</t>
+  </si>
+  <si>
+    <t>Điền vào chỗ trống sau: “Chuyên chính vô sản là một hình thức đặc biệt của liên minh giai cấp giữa……, đội tiền phong của những người lao động, với đông đảo những tầng lớp lao động không phải vô sản, hoặc với phần lớn những tầng lớp đó, liên minh nhằm chống lại tư bản”.</t>
+  </si>
+  <si>
+    <t>Giai cấp vô sản</t>
+  </si>
+  <si>
+    <t>Trong khối liên minh giai cấp, tầng lớp trong thời kỳ quá độ lên CNXH ở Việt Nam, giai cấp nào là lực lượng lãnh đạo?</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Trong học thuyết của chủ nghĩa Mác – Lênin đã làm sáng tỏ vai trò lịch sử toàn thế giới của:</t>
+  </si>
+  <si>
+    <t>Tình hình thế giới đầu thế kỷ XX là:</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa tư bản chuyển thành chủ nghĩa đế quốc.</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa tư bản ở giai đoạn tự do cạnh tranh.</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa tư bản ở giai đọan tích lũy tư bản nguyên thủy.</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa cộng sản ra đời</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội của xã hội tư bản chủ nghĩa được đặc trưng bởi 2 giai cấp cơ bản đối lập nhau về lợi ích là:</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản và giai cấp nông dân.</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản tầng lớp trí thức.</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản và giai cấp vô sản</t>
+  </si>
+  <si>
+    <t>Giai cấp vô sản và chủ nô</t>
+  </si>
+  <si>
+    <t>Phân phối theo kết quả lao động là hình thức phân phối cơ bản của xã hội nào?</t>
+  </si>
+  <si>
+    <t>Xã hội tư bản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Xã hội xã hội chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Xã hội phong kiến</t>
+  </si>
+  <si>
+    <t>Xã hội chiếm hữu nô lệ</t>
+  </si>
+  <si>
+    <t>Theo quan điểm của chủ nghĩa Mác – Lênin, luận điểm nào sau đây nói về bản chất của giai cấp tư sản?</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản bóc lột giá trị thặng dư</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản tích cực đổi mới công nghệ</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản thường áp dụng khoa học kỹ thuật, nâng cao năng suất lao động</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản tích cực đổi mới phương pháp quản lý</t>
+  </si>
+  <si>
+    <t>Xã hội có giai cấp, xét về mặt kết cấu thì :</t>
+  </si>
+  <si>
+    <t>Bao giờ cũng có những giai cấp cơ bản và giai cấp không cơ bản.</t>
+  </si>
+  <si>
+    <t>Chỉ có những giai cấp cơ bản</t>
+  </si>
+  <si>
+    <t>Chỉ có những giai cấp không cơ bản.</t>
+  </si>
+  <si>
+    <t>Các giai cấp đối kháng nhau</t>
+  </si>
+  <si>
+    <t>Đến một giai đoạn mà xã hội không còn giai cấp, không còn đấu tranh giai cấp thì:</t>
+  </si>
+  <si>
+    <t>Nhà nước vẫn còn tồn tại</t>
+  </si>
+  <si>
+    <t>Nhà nước tự tiêu vong</t>
+  </si>
+  <si>
+    <t>Nhà nước phát triển</t>
+  </si>
+  <si>
+    <t>Nhà nước phồn thịnh</t>
+  </si>
+  <si>
+    <t>Nhà nước là :</t>
+  </si>
+  <si>
+    <t>Tổ chức chính trị của giai cấp thống trị về kinh tế nhằm bảo vệ trật tự hiện hành và đàn áp sự phản kháng của các giai cấp khác.</t>
+  </si>
+  <si>
+    <t>Tổ chức chính trị đứng trên các giai cấp nhằm bảo vệ tất cả các giai cấp.</t>
+  </si>
+  <si>
+    <t>Tổ chức chính trị của giai cấp thống trị về kinh tế nhằm bảo vệ trật tự hiện hành và bảo vệ lợi ích của tất cả các giai cấp khác</t>
+  </si>
+  <si>
+    <t>Tổ chức chính trị của giai cấp thống trị về chính trị nhằm bảo vệ trật tự hiện hành và bảo vệ lợi ích của tất cả các giai cấp khác</t>
+  </si>
+  <si>
+    <t>Trong thời kỳ quá độ lên CNXH ở nước ta, mâu thuẫn về lợi ích giữa những người lao động làm thuê với tầng lớp tư sản là :</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn đối kháng</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn không đối kháng</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn không cơ bản</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn thứ yếu.</t>
+  </si>
+  <si>
+    <t>Quan hệ giữa giai cấp công nhân, nhân dân lao động với tầng lớp tư sản là :</t>
+  </si>
+  <si>
+    <t>Quan hệ hợp tác</t>
+  </si>
+  <si>
+    <t>Quan hệ đấu tranh</t>
+  </si>
+  <si>
+    <t>Quan hệ song phương</t>
+  </si>
+  <si>
+    <t>Quan hệ vừa hợp tác vừa đấu tranh</t>
+  </si>
+  <si>
+    <t>Cơ cấu xã hội giai cấp trong thời kỳ quá độ lên chủ nghĩa xã hội biến động và phát triển trong mối quan hệ?</t>
+  </si>
+  <si>
+    <t>Vừa có mâu thuẫn vừa có mối quan hệ liên minh với nhau</t>
+  </si>
+  <si>
+    <t>Trong mối tương quan</t>
+  </si>
+  <si>
+    <t>Có sự đấu tranh gay gắt</t>
+  </si>
+  <si>
+    <t>Quan hệ ràng buộc</t>
+  </si>
+  <si>
+    <t>Trong nội dung phát triển văn hóa - xã hội của xã hội xã hội chủ nghĩa thì tầng lớp nào giữ vai trò quan trọng nhất?</t>
+  </si>
+  <si>
+    <t>Trí thức</t>
+  </si>
+  <si>
+    <t>Tư sản</t>
+  </si>
+  <si>
+    <t>Các tầng lớp lao động khác</t>
+  </si>
+  <si>
+    <t>Trong Tuyên ngôn của Đảng Cộng sản, C.Mác và Ph.Ăngghen đã nói đến khả năng và sự cần thiết phải đoàn kết:</t>
+  </si>
+  <si>
+    <t>Giai cấp vô sản với các tầng lớp trung gian</t>
+  </si>
+  <si>
+    <t>Giai cấp vô sản với nông dân</t>
+  </si>
+  <si>
+    <t>Giai cấp vô sản với tiểu tư sản</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản với các tầng lớp trung gian</t>
+  </si>
+  <si>
+    <t>Sau cách mạng 1848 - 1852 ở Tây Âu, các ông thấy rõ, vấn đề liên minh giữa giai cấp công nhân và các tầng lớp lao động khác trong xã hội, nhất là giai cấp nông dân trở thành vấn đề có tính sống còn đối với cuộc đấu tranh cách mạng của:</t>
+  </si>
+  <si>
+    <t>Nông dân</t>
+  </si>
+  <si>
+    <t>Một trong những nguyên nhân dẫn đến thất bại của Công xã Pa-ri (năm 1871) cũng là do:</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân không liên minh được với giai cấp nông dân</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân không liên minh được với tiểu tư sản</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân không liên minh được với tất cả các tầng lớp khác</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân không liên minh được với giai cấp vô sản</t>
+  </si>
+  <si>
+    <t>Từ thực tiễn lịch sử sinh động của Công xã Pa-ri, C.Mác đã bổ sung cho lý luận của mình về liên minh công - nông:</t>
+  </si>
+  <si>
+    <t>Đó là vai trò hết sức quan trọng của giai cấp nông dân không chỉ trong việc giành chính quyền mà còn cả trong việc giữ chính quyền</t>
+  </si>
+  <si>
+    <t>Vai trò lãnh đạo của nông dân</t>
+  </si>
+  <si>
+    <t>Vai trò đấu tranh của tư sản</t>
+  </si>
+  <si>
+    <t>Vai trò của các tầng lớp khác</t>
+  </si>
+  <si>
+    <t>Về nội dung của liên minh công - nông, không chỉ dừng ở sự liên minh về chính trị, C.Mác và Ph.Ăngghen còn chỉ rõ sự liên minh về:</t>
+  </si>
+  <si>
+    <t>Lý tưởng</t>
+  </si>
+  <si>
+    <t>V.I.Lênin nêu nhiều luận điểm về liên minh công - nông - trí thức. Trong đó có luận điểm:</t>
+  </si>
+  <si>
+    <t>“Chuyên chính vô sản là một hình thức đặc biệt của liên minh giai cấp giữa giai cấp vô sản, đội tiên phong của những người lao động, với đông đảo những tầng lớp không phải vô sản (tiểu tư sản, tiểu chủ, nông dân, trí thức)”</t>
+  </si>
+  <si>
+    <t>“Chuyên chính vô sản là một hình thức đặc biệt của liên minh giai cấp giữa giai cấp nông dân, đội tiên phong của những người lao động, với đông đảo những tầng lớp không phải vô sản (tiểu tư sản, tiểu chủ, nông dân, trí thức)”</t>
+  </si>
+  <si>
+    <t>“Chuyên chính vô sản là một hình thức đặc biệt của liên minh giai cấp giữa giai cấp chủ nô, đội tiên phong của những người lao động, với đông đảo những tầng lớp không phải vô sản (tiểu tư sản, tiểu chủ, nông dân, trí thức)”</t>
+  </si>
+  <si>
+    <t>“Chuyên chính vô sản là một hình thức đặc biệt của liên minh giai cấp giữa giai cấp tư sản, đội tiên phong của những người lao động, với đông đảo những tầng lớp không phải vô sản (tiểu tư sản, tiểu chủ, nông dân, trí thức)”</t>
+  </si>
+  <si>
+    <t>Trong tác phẩm “Những người bạn dân” là thế nào và họ đấu tranh chống những người dân chủ - xã hội ra sao?”, V.I.Lênin phê phán quan điểm phi lịch sử của phái “dân tuý” cho rằng:</t>
+  </si>
+  <si>
+    <t>Nông dân là lực lượng chủ yếu của cách mạng.</t>
+  </si>
+  <si>
+    <t>Công dân là lực lượng chủ yếu của cách mạng.</t>
+  </si>
+  <si>
+    <t>Tư sản là lực lượng chủ yếu của cách mạng.</t>
+  </si>
+  <si>
+    <t>tiểu tư sản là lực lượng chủ yếu của cách mạng.</t>
+  </si>
+  <si>
+    <t>Đại hội IX của Đảng cộng sản Việt Nam chỉ rõ:</t>
+  </si>
+  <si>
+    <t>“Động lực chủ yếu để phát triển đất nước là khối đại đoàn kết toàn dân trên cơ sở liên minh giữa giai cấp công nhân với giai cấp nông dân và trí thức do Đảng lãnh đạo”</t>
+  </si>
+  <si>
+    <t>“Động lực chủ yếu để phát triển đất nước là khối đại đoàn kết toàn dân trên cơ sở liên minh giữa giai cấp công nhân với giai cấp nông dân”</t>
+  </si>
+  <si>
+    <t>“Động lực chủ yếu để phát triển đất nước là khối đại đoàn kết toàn dân trên cơ sở liên minh giữa giai cấp công nhân với trí thức do Đảng lãnh đạo”</t>
+  </si>
+  <si>
+    <t>“Động lực chủ yếu để phát triển đất nước là khối đại đoàn kết toàn dân trên cơ sở liên minh giữa giai cấp nông dân và trí thức do Đảng lãnh đạo”</t>
+  </si>
+  <si>
+    <t>Nguồn gốc của sự hình thành và phân chia giai cấp?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +443,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +495,8 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -395,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -428,14 +812,609 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
